--- a/todoData.xlsx
+++ b/todoData.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">year</t>
   </si>
   <si>
-    <t xml:space="preserve">sum</t>
+    <t xml:space="preserve">concat(d,m,y)</t>
   </si>
   <si>
     <t xml:space="preserve">bread</t>
@@ -396,12 +396,14 @@
   <dimension ref="A1:AI1281"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
